--- a/Jornal ESG.xlsx
+++ b/Jornal ESG.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmga8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmga8\Documents\Portfolio\Estudos\Projetos_ESG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{F3AA5066-1A98-4815-9F73-90AEA9524096}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BDF3C-058B-40EC-BF9E-FF41DF85D585}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B05CC465-4541-4136-B7A4-710EC1A37EAB}"/>
+    <workbookView xWindow="20370" yWindow="-1260" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{B05CC465-4541-4136-B7A4-710EC1A37EAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="ESG" sheetId="1" r:id="rId1"/>
+    <sheet name="Aéreo" sheetId="4" r:id="rId2"/>
+    <sheet name="Governo" sheetId="3" r:id="rId3"/>
+    <sheet name="Educação" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Data da publicação</t>
   </si>
@@ -41,20 +44,215 @@
     <t>Título da matéria</t>
   </si>
   <si>
-    <t>Problema de negócio</t>
-  </si>
-  <si>
-    <t>Projeto ESG</t>
-  </si>
-  <si>
-    <t>Resultados</t>
+    <t>Mudanças educacionais e cliemáticas</t>
+  </si>
+  <si>
+    <t>Descarbonização do setor aéreo já começou</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Aéreo</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Conjunto de dados úteis</t>
+  </si>
+  <si>
+    <t>Observatório do clima (Maior coalização de ONGs ambientais do país)</t>
+  </si>
+  <si>
+    <t>Plano de ação para prevenção e controle do desmatamento da Amazônia (PPCDAm)</t>
+  </si>
+  <si>
+    <t>1 - Monitoamento e controle ambiental</t>
+  </si>
+  <si>
+    <t>Governo</t>
+  </si>
+  <si>
+    <t>Decretos já reestruturam combate ao desmatamento</t>
+  </si>
+  <si>
+    <t>Decretos:</t>
+  </si>
+  <si>
+    <t>Pilares:</t>
+  </si>
+  <si>
+    <t>2 - Ordenamento fundiário e territorial</t>
+  </si>
+  <si>
+    <t>3 - Apoio a atividades produtivas sustentáveis</t>
+  </si>
+  <si>
+    <t>Comissão Interministerial Permanente de prevenção e Controle dos Desmatamento</t>
+  </si>
+  <si>
+    <t>Criação de comissão para acompanhar os planos, que tem como responsabilidades:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar, monitorar a implementação, propor medidas para superar dificuldades na implementação e garatntir que os planos contribuam para a conservação da diversidade biológica e a redução das emissões de gases de efeito estufa </t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Informações Florestais</t>
+  </si>
+  <si>
+    <t>Reativação do Fundo Amazônia e o Fundo Nacional do Meio Ambiente (FNMA)</t>
+  </si>
+  <si>
+    <t>O Fundo Amazônia direciona os recursos para o combate de crimes ambientais e o FNMA financia projetos que visem ao uso racional e sustentável de recursos naturais, incluindo a manutenção, melhoria ou recuperação da qualidade ambiental no sentido de elevar a qualidade de vida da população.</t>
+  </si>
+  <si>
+    <t>1 - Fundo Amazônia: Recursos internacionais</t>
+  </si>
+  <si>
+    <t>2 - FNMA: Multas de crimes e infrações ambientais e outras doações</t>
+  </si>
+  <si>
+    <t>Fim das barreiras para que multas ambientais fossem cobradas</t>
+  </si>
+  <si>
+    <t>Objetivo era estimular o desenvolvimento da mineração artesanal e em pequena escala atraves de politicas publicas setoriais.</t>
+  </si>
+  <si>
+    <t>Contribuiu com o garimpo ilegal na região amozonica</t>
+  </si>
+  <si>
+    <t>Exclusão do Programa e da Comissão Interministerial de Apoio ao Desenvolvimento da Mineração Artesanal e Pequena Escala (Pró-Mapa)</t>
+  </si>
+  <si>
+    <t>Sistema de Alerta de Desmatamento (SAD) do Imazon</t>
+  </si>
+  <si>
+    <t>Sistema Prodes do Instituto Nacional de Pesquisas Espaciais (INPE)</t>
+  </si>
+  <si>
+    <t>Sistema de Estimativas de Emissões de Gases de Efeitos Estufas do Observatório do Cliema</t>
+  </si>
+  <si>
+    <t>Na recuperação das pastagens, um meio para capturar carbono</t>
+  </si>
+  <si>
+    <t>A captura de carbono pode ocorrer por meio de três formas e processos diferentes: pré-combustão, pós-combustão e combustão de oxi-combustível. Os sistemas de pré-combustão convertem combustível sólido, líquido ou gasoso em uma mistura de hidrogênio e gás carbônico a partir de processos como “gaseificação” ou “reforma”. Nessa reação, o hidrogênio pode ser usado como gerador de calor ou energia livre de dióxido de carbono.</t>
+  </si>
+  <si>
+    <t>A captura pós-combustão, por sua vez, envolve capturar o gás carbônico da exaustão de um sistema de combustão e absorvê-lo em um solvente, antes de remover e comprimir os elementos poluentes. O dióxido de carbono também pode ser separado usando filtração por membrana de alta pressão, bem como por processos de separação criogênica.</t>
+  </si>
+  <si>
+    <t>O carbono capturado com a recuperação com recuperação de pastagens degradadas.</t>
+  </si>
+  <si>
+    <t>Por fim, a combustão de oxi-combustível consiste na queima de um combustível com o oxigênio no lugar do ar, para que o gás resultante seja constituído de vapor de água e gás carbônico. Apesar desse processo facilitar a captura de CO2 devido à sua maior concentração, ele requer a separação prévia de oxigênio do restante do ar.</t>
+  </si>
+  <si>
+    <t>A solução para os problemas ambientais do Brasil passa pelas pastagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratório de Processamento de Imagens e geoprocessamento da UFG </t>
+  </si>
+  <si>
+    <t>Quando a floresta valer mais em pé do que no chão, não haverá mais desmatamento. É preciso tornar a restauração mais rentável do que desmatar.</t>
+  </si>
+  <si>
+    <t>10 milhões de toneladas por ano de carne bovina poderiam ser produzidas com 30% da área atual de pastagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há terra disponivel. Pode ser usada para a expansão da agricultura, da silvicultura e para regeneração de vegetação nativa. </t>
+  </si>
+  <si>
+    <t>Capacidade de acúmulo de carbono nas pastagens, diretamente associada a ganhos de produção e ambientais (Sequestro de CO2)</t>
+  </si>
+  <si>
+    <t>Startup brasileira PWTech (Fornecedora de equipamentos de purificação de água contaminadas)</t>
+  </si>
+  <si>
+    <t>Principais pontos das matérias:</t>
+  </si>
+  <si>
+    <t>Principal solução: Adição do combustivel sustentavel de aviação (SAF) ao querosene de aviação (QAV) de origem fóssil.</t>
+  </si>
+  <si>
+    <t>A aviação responde pela emissão de cerca de 3,5% do CO2 lançados na atmosfera.</t>
+  </si>
+  <si>
+    <t>Transição energética mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande contribuição energética dos biocombustiveis, cujas materias-primas crescem em abundância por todos os cantos do Brasil. A partir do uso do etanol e dos resíduos de sua produção, bem como de óleos vegetais, a industria nacional terá consições de acelerar a produção local do SAF, que pode resultar em redução no preço de passagens aéreas assim que as rotas tecnológicas de produção estiverem dominadas e o mercado estabelecido. </t>
+  </si>
+  <si>
+    <t>Era necessário que os setores de aviação e biocombustiveis se unissem para perseguir as metas de descarbonização até atingir a neutralidade das emissões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto de Lei do Combustivel do Futuro se conecta com o Programa Nacional de Hidrogenio ao haver produção de SAF com hidrogenio de baixo carbono. </t>
+  </si>
+  <si>
+    <t>A crise climática solicita uma agenda de transformação ecologica estrutural, intensiva em inovações tecnologicas e em capital humano crítico e criativo, além de mudanças de hábitos e comportamentos frente a natureza.</t>
+  </si>
+  <si>
+    <t>Melhoria de infraestrutura, pois não possuem climatização. Até mundaças em procedimentos, aletrando a rotina das atividades esportivas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação de planos de contingência para desastre naturais que possam levar ao fechamento das escolas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansiedade ambiental associado as alterações climaticas, exacerbados pela incapacidade dos governos em agir rapidamente. </t>
+  </si>
+  <si>
+    <t>Fundação Brasil de Educação Ambiental</t>
+  </si>
+  <si>
+    <t>Educação ambiental capacita cidadãos a resolver conflitos e desafios decorrentes da crise ambiental, indo além da mera conscientização sobre o tema.</t>
+  </si>
+  <si>
+    <t>Diretrizes de educação climática ambiental lançada pela Fundação Brasil De Educação Ambiental.</t>
+  </si>
+  <si>
+    <t>Abordagem interdisciplinar com outras disciplinas</t>
+  </si>
+  <si>
+    <t>Precisamos estabelecer um pacto social que reconheça a educação como estratégia essencial no combate a crise climatica, imbuida de urgencia, compromisso etico e responsabilidade com a qualidade de vida. É crucial fomentar a conexao entre conhecimentos, habilidades e valores na educação básica para fortalecer uma geração de estudantes capaz de compreender os desafios, construir soluções inovadoras e liderar mudanças essenciais. Esse caminho contribui para a construção de uma cidadania verde em sintonia com as possibilidades derivadas de uma transformação ecologica sistemica e estrutural que pode consolidar a identidade do Brasil como potência socioambiental.</t>
+  </si>
+  <si>
+    <t>A solução do planeta está na natureza. Basta investir.</t>
+  </si>
+  <si>
+    <t>Soluções baseadas na natureza (SBN) ressalta a importancia da natureza na solução das crises climaticas e de biodiversidade.</t>
+  </si>
+  <si>
+    <t>Resultado de uma visão de desenvolvimento economico infinito, que enxerga a natureza como uma barreira. Sob essa perspectiva, é preciso dominar o meio natural para que possamos nos desenvolver. Revertendo esta lógica, as SBN preconizam a volta do uso de recursos e da inteligência naturais não apenas para recuperar os estragos causados pelas ações humanas, mas também para melhorar as nossas vidas, olhando para a natureza como uma parceira.</t>
+  </si>
+  <si>
+    <t>É o uso das SBN na mitigação de emissões de gases do efeito estufa, atraces da recuperação de florestas desmatadas e reflorestamento.</t>
+  </si>
+  <si>
+    <t>A instalações de jardins de chuva e parques lineares, bem como o estímulo a agricultura urbana, aproximando a produção do consumo, são exemplos simples dessa aplicação.</t>
+  </si>
+  <si>
+    <t>Em sua grande maioria, as gestões dos municipios brasileiros não estão adaptadas a aplicação das SBN. Há uma visão cultural bastante arraigada de que a prevenção de tragédias como inundações, deslizamentos de terra, calor extremo e secas está na tecnologia, nas obras de concreto e cimento. Falta conhecimento, sobra pragmatismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisamos de recursos financeiros para pilotar e escalar projetos de SBN em cidades. </t>
+  </si>
+  <si>
+    <t>Desafios e soluções: Transição energetica em países dependentes do petroleo</t>
+  </si>
+  <si>
+    <t>A humanidade emite anualmente 12,5 gigatoneladas de dióxido de carbono equivalente provenientes de combustíveis fósseis, sendo essas emissões o principal impulsionador do aquecimento global.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O petroleo é uma fonte de energia barata devido a sua grande escala de produção e a dependencia energetica. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +260,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -108,13 +383,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -125,41 +411,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -180,9 +431,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -190,43 +439,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -239,6 +700,24 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -257,7 +736,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -270,48 +750,11 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -322,8 +765,22 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -331,13 +788,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -351,6 +801,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -370,15 +827,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8645B5E9-8540-4845-B36B-6724F67C4F4D}" name="Tabela1" displayName="Tabela1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:F16" xr:uid="{D8FB6AC5-E120-4D30-934F-E3ABD07A56B7}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F8CD7A9-2F7E-4EA7-8071-5AB8D36620B4}" name="Data da publicação" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{08573EE3-77BE-4AB2-B772-0B0E086B3434}" name="Título da matéria" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B228E9EB-0F5C-4FE2-B722-B310B08462B8}" name="Empresa" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{040123A2-EFEB-4129-8730-753BFB8FAF60}" name="Problema de negócio" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{7BA33B49-B4E5-414D-9403-DF7C62AB755B}" name="Projeto ESG" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F0C5F1EC-741B-40BC-8FB5-68BD8CD4065B}" name="Resultados" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8645B5E9-8540-4845-B36B-6724F67C4F4D}" name="Tabela1" displayName="Tabela1" ref="A3:C18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A3:C18" xr:uid="{D8FB6AC5-E120-4D30-934F-E3ABD07A56B7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6F8CD7A9-2F7E-4EA7-8071-5AB8D36620B4}" name="Data da publicação" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{08573EE3-77BE-4AB2-B772-0B0E086B3434}" name="Título da matéria" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{47B6C838-C3C2-4253-B612-4AD4F4B049BA}" name="Setor" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8774601A-5A05-43FA-B1E8-637426D94678}" name="Tabela2" displayName="Tabela2" ref="E3:E18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="E3:E18" xr:uid="{4680423D-C821-4DA3-BB6F-62AA0A2C0EAF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2736481B-543C-48A6-B6ED-F34329462F31}" name="Conjunto de dados úteis" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,166 +1145,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7CC53-19CB-4B04-89D8-8AD56035C22D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="88.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="3" customWidth="1"/>
+    <col min="7" max="7" width="95.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45222</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45217</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45249</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="42"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" location="Educação!A1" display="Educação" xr:uid="{B3B97B0F-DF48-49EF-98D4-794395BCD0D2}"/>
+    <hyperlink ref="C6" location="Governo!A1" display="Governo" xr:uid="{9F5960DD-F48D-4127-800D-3E373F65A80C}"/>
+    <hyperlink ref="C7" location="Governo!A1" display="Governo" xr:uid="{A740FCD1-E8F1-45E2-970D-7561E8B8032A}"/>
+    <hyperlink ref="C5" location="Aéreo!A1" display="Aéreo" xr:uid="{F909F52E-EDF0-4ACB-89AE-B87BA521F374}"/>
+    <hyperlink ref="C8" location="Governo!A1" display="Governo" xr:uid="{5C69A161-224F-4353-873C-63AF35F20ECE}"/>
+    <hyperlink ref="C9" location="Governo!A1" display="Governo" xr:uid="{89D2AF4E-A0F6-4F71-8EAC-FC3107158535}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B88B940-A0CC-4509-8F31-991A6FCC9E42}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:M12"/>
+    <mergeCell ref="A13:M14"/>
+    <mergeCell ref="A7:M8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984879CB-EA20-4A81-8C62-7CC3886AB0F8}">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="35"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="35"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="35"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="35"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="50"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="50"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="50"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="50"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="22"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="50"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="50"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="50"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A46:N47"/>
+    <mergeCell ref="A48:N50"/>
+    <mergeCell ref="B11:M12"/>
+    <mergeCell ref="A14:M16"/>
+    <mergeCell ref="A30:N32"/>
+    <mergeCell ref="A33:N35"/>
+    <mergeCell ref="A36:N38"/>
+    <mergeCell ref="A41:N44"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4096C0-2E02-4F84-BFF8-D186849BAC05}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:M5"/>
+    <mergeCell ref="A12:M16"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>